--- a/Documentos/CUADRO DE LO QUE FALTA.xlsx
+++ b/Documentos/CUADRO DE LO QUE FALTA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Administracion</t>
   </si>
@@ -195,9 +195,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,6 +202,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -215,9 +218,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -226,7 +226,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,12 +558,12 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="2"/>
@@ -572,24 +572,24 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="6">
         <v>2</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="6">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -600,12 +600,12 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -616,12 +616,12 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6">
         <v>5</v>
       </c>
       <c r="F8" s="2"/>
@@ -630,12 +630,12 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6">
         <v>6</v>
       </c>
       <c r="F9" s="2"/>
@@ -649,7 +649,7 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="10">
+      <c r="E10" s="6">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -660,18 +660,18 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
@@ -746,25 +746,25 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="2" t="s">
         <v>21</v>
       </c>
@@ -799,9 +799,7 @@
       <c r="F22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
@@ -834,11 +832,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="1">
         <v>15</v>
       </c>
@@ -846,11 +844,11 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="1">
         <v>16</v>
       </c>
@@ -862,29 +860,28 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="1">
         <v>17</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="G29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B26:D26"/>
@@ -893,13 +890,12 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentos/CUADRO DE LO QUE FALTA.xlsx
+++ b/Documentos/CUADRO DE LO QUE FALTA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Administracion</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Generar Reportes</t>
   </si>
   <si>
-    <t>Administrar clientes</t>
-  </si>
-  <si>
     <t>Compras</t>
   </si>
   <si>
@@ -85,20 +82,20 @@
     <t>X</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Especificacion</t>
   </si>
   <si>
     <t>GUI</t>
+  </si>
+  <si>
+    <t>Registrar clientes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +105,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -187,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,6 +232,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -530,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G29"/>
+  <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,6 +550,9 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="15"/>
+    </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>0</v>
@@ -548,13 +560,13 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -568,7 +580,7 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -593,11 +605,9 @@
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -609,10 +619,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -625,9 +635,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
@@ -639,9 +647,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
@@ -653,11 +659,9 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -680,13 +684,13 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -711,10 +715,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -727,13 +731,11 @@
         <v>10</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -741,14 +743,12 @@
         <v>11</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
     </row>
@@ -761,23 +761,23 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -789,7 +789,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -797,13 +797,13 @@
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -811,29 +811,27 @@
         <v>14</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="G23" s="2"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -845,7 +843,7 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -853,15 +851,13 @@
         <v>16</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -869,9 +865,12 @@
         <v>17</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="21">

--- a/Documentos/CUADRO DE LO QUE FALTA.xlsx
+++ b/Documentos/CUADRO DE LO QUE FALTA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Administracion</t>
   </si>
@@ -95,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,6 +246,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,9 +591,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -621,9 +631,7 @@
       <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
@@ -717,9 +725,7 @@
       <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">

--- a/Documentos/CUADRO DE LO QUE FALTA.xlsx
+++ b/Documentos/CUADRO DE LO QUE FALTA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Administracion</t>
   </si>
@@ -222,33 +222,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,14 +563,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G1" s="15"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
@@ -582,11 +582,11 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -594,11 +594,11 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="6">
         <v>2</v>
       </c>
@@ -606,39 +606,35 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="6">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="17"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="6">
         <v>5</v>
       </c>
@@ -646,11 +642,11 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="6">
         <v>6</v>
       </c>
@@ -658,17 +654,15 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="6">
         <v>7</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -686,11 +680,11 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
@@ -702,11 +696,11 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="1">
         <v>8</v>
       </c>
@@ -714,25 +708,23 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="1">
         <v>9</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1">
         <v>10</v>
       </c>
@@ -740,11 +732,11 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="1">
         <v>11</v>
       </c>
@@ -754,7 +746,7 @@
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="16"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
     </row>
@@ -766,11 +758,11 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
@@ -782,11 +774,11 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="1">
         <v>12</v>
       </c>
@@ -794,11 +786,11 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="1">
         <v>13</v>
       </c>
@@ -808,11 +800,11 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="1">
         <v>14</v>
       </c>
@@ -820,11 +812,11 @@
       <c r="G23" s="2"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
@@ -836,11 +828,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="1">
         <v>15</v>
       </c>
@@ -848,25 +840,23 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="1">
         <v>16</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="1">
         <v>17</v>
       </c>
@@ -876,17 +866,16 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="15"/>
+      <c r="F30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B26:D26"/>
@@ -895,12 +884,13 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
